--- a/biology/Zoologie/Gerbille_de_Libye/Gerbille_de_Libye.xlsx
+++ b/biology/Zoologie/Gerbille_de_Libye/Gerbille_de_Libye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Gerbillus tarabuli
-La Gerbille de Libye[1] (Gerbillus tarabuli)[2],[3],[4],(en) Référence NCBI : Gerbillus tarabuli (taxons inclus),[5] est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on trouve dans presque tout le nord ouest de l'Afrique. La classification de ce petit mammifère est discutée et ce serait la même espèce que la Gerbille de Riggenbach[6],[7].
+La Gerbille de Libye (Gerbillus tarabuli)(en) Référence NCBI : Gerbillus tarabuli (taxons inclus), est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on trouve dans presque tout le nord ouest de l'Afrique. La classification de ce petit mammifère est discutée et ce serait la même espèce que la Gerbille de Riggenbach,.
 Synonymes :
-Gerbillus riggenbachi Thomas, 1903[8],[9]
-Gerbillus (Gerbillus) tarabuli Thomas, 1902[10]</t>
+Gerbillus riggenbachi Thomas, 1903,
+Gerbillus (Gerbillus) tarabuli Thomas, 1902</t>
         </is>
       </c>
     </row>
